--- a/data/2026-02-05/fitness_data_20260206_140525.xlsx
+++ b/data/2026-02-05/fitness_data_20260206_140525.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Walkathon\fitness-challenge\data\2026-02-05\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D678A86-F16E-4655-B88E-71A8CE025265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13260" windowHeight="12336" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Data" sheetId="1" r:id="rId1"/>
     <sheet name="Daily Summary" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="725" uniqueCount="261">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="261">
   <si>
     <t>folder_name</t>
   </si>
@@ -803,8 +809,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,6 +822,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -853,27 +867,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -911,7 +936,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -945,6 +970,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -979,9 +1005,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1154,14 +1181,23 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J177"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B156" workbookViewId="0">
+      <selection activeCell="H177" sqref="H177"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="0" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="3" max="3" width="0" hidden="1" customWidth="1"/>
+    <col min="5" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="18.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1193,7 +1229,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -1204,7 +1240,7 @@
         <v>187</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>10122</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -1219,7 +1255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>10</v>
       </c>
@@ -1230,7 +1266,7 @@
         <v>188</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>8736</v>
       </c>
       <c r="E3">
         <v>414</v>
@@ -1248,7 +1284,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1259,7 +1295,7 @@
         <v>188</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>847</v>
       </c>
       <c r="E4">
         <v>85</v>
@@ -1277,7 +1313,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1288,7 +1324,7 @@
         <v>188</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>25390</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -1306,7 +1342,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1317,13 +1353,13 @@
         <v>188</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>3514</v>
       </c>
       <c r="E6">
         <v>178</v>
       </c>
       <c r="F6">
-        <v>2.51</v>
+        <v>2.5099999999999998</v>
       </c>
       <c r="G6">
         <v>48</v>
@@ -1335,7 +1371,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1346,7 +1382,7 @@
         <v>188</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="E7">
         <v>64</v>
@@ -1364,7 +1400,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1375,7 +1411,7 @@
         <v>188</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>4016</v>
       </c>
       <c r="E8">
         <v>193</v>
@@ -1393,7 +1429,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1422,7 +1458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1433,7 +1469,7 @@
         <v>190</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>10121</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1451,7 +1487,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1462,7 +1498,7 @@
         <v>190</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>13276</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1480,7 +1516,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1509,7 +1545,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1556,7 @@
         <v>191</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>20002</v>
       </c>
       <c r="E13">
         <v>1035</v>
@@ -1535,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1546,7 +1582,7 @@
         <v>191</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>20002</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1561,7 +1597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>10</v>
       </c>
@@ -1590,7 +1626,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1601,7 +1637,7 @@
         <v>192</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>10568</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1616,7 +1652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1627,7 +1663,7 @@
         <v>193</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>4966</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1645,7 +1681,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1656,7 +1692,7 @@
         <v>193</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>4478</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1674,7 +1710,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1685,7 +1721,7 @@
         <v>194</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>18351</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1700,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1729,7 +1765,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1740,7 +1776,7 @@
         <v>195</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>9797</v>
       </c>
       <c r="E21">
         <v>500</v>
@@ -1758,7 +1794,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>10</v>
       </c>
@@ -1787,7 +1823,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1798,7 +1834,7 @@
         <v>196</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>12105</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1813,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>10</v>
       </c>
@@ -1824,7 +1860,7 @@
         <v>196</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>5139</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1839,7 +1875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +1886,7 @@
         <v>196</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>7769</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1865,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>10</v>
       </c>
@@ -1876,7 +1912,7 @@
         <v>196</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>7993</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1891,7 +1927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1920,18 +1956,18 @@
         <v>200</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>10</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C28" t="s">
         <v>197</v>
       </c>
       <c r="D28">
-        <v>0</v>
+        <v>10031</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1949,7 +1985,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1960,7 +1996,7 @@
         <v>197</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>7781</v>
       </c>
       <c r="E29">
         <v>2050</v>
@@ -1975,7 +2011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1986,13 +2022,13 @@
         <v>197</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>5552</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -2001,7 +2037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2030,7 +2066,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2041,7 +2077,7 @@
         <v>197</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>2048</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2056,7 +2092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2067,7 +2103,7 @@
         <v>197</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>6950</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2082,7 +2118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2129,7 @@
         <v>197</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>1969</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2108,7 +2144,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>10</v>
       </c>
@@ -2119,7 +2155,7 @@
         <v>197</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>7366</v>
       </c>
       <c r="E35">
         <v>1854</v>
@@ -2134,7 +2170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>10</v>
       </c>
@@ -2145,13 +2181,13 @@
         <v>197</v>
       </c>
       <c r="D36">
-        <v>0</v>
+        <v>5856</v>
       </c>
       <c r="E36">
         <v>0</v>
       </c>
       <c r="F36">
-        <v>4.19</v>
+        <v>4.1900000000000004</v>
       </c>
       <c r="G36">
         <v>15</v>
@@ -2160,7 +2196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +2225,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -2200,7 +2236,7 @@
         <v>197</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>858</v>
       </c>
       <c r="E38">
         <v>0</v>
@@ -2215,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>10</v>
       </c>
@@ -2226,7 +2262,7 @@
         <v>198</v>
       </c>
       <c r="D39">
-        <v>0</v>
+        <v>7770</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -2241,7 +2277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2252,7 +2288,7 @@
         <v>198</v>
       </c>
       <c r="D40">
-        <v>0</v>
+        <v>7107</v>
       </c>
       <c r="E40">
         <v>0</v>
@@ -2267,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2296,7 +2332,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2307,7 +2343,7 @@
         <v>199</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>7477</v>
       </c>
       <c r="E42">
         <v>0</v>
@@ -2322,7 +2358,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2339,7 +2375,7 @@
         <v>175</v>
       </c>
       <c r="F43">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G43">
         <v>47</v>
@@ -2351,7 +2387,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2368,7 +2404,7 @@
         <v>91</v>
       </c>
       <c r="F44">
-        <v>5.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="G44">
         <v>26</v>
@@ -2380,7 +2416,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2409,7 +2445,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>10</v>
       </c>
@@ -2420,7 +2456,7 @@
         <v>200</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>20456</v>
       </c>
       <c r="E46">
         <v>0</v>
@@ -2431,14 +2467,11 @@
       <c r="G46">
         <v>0</v>
       </c>
-      <c r="H46" t="s">
-        <v>248</v>
-      </c>
       <c r="I46">
         <v>200</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -2467,7 +2500,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -2496,7 +2529,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2507,7 +2540,7 @@
         <v>201</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>12195</v>
       </c>
       <c r="E49">
         <v>0</v>
@@ -2518,14 +2551,11 @@
       <c r="G49">
         <v>120</v>
       </c>
-      <c r="H49" t="s">
-        <v>248</v>
-      </c>
       <c r="I49">
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -2554,7 +2584,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -2565,7 +2595,7 @@
         <v>203</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>19124</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -2580,7 +2610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2591,7 +2621,7 @@
         <v>204</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>9042</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -2606,7 +2636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2617,7 +2647,7 @@
         <v>204</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>9042</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -2632,7 +2662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2643,7 +2673,7 @@
         <v>204</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>10029</v>
       </c>
       <c r="E54">
         <v>0</v>
@@ -2658,7 +2688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2669,7 +2699,7 @@
         <v>204</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>10029</v>
       </c>
       <c r="E55">
         <v>0</v>
@@ -2684,7 +2714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2695,7 +2725,7 @@
         <v>205</v>
       </c>
       <c r="D56">
-        <v>0</v>
+        <v>20107</v>
       </c>
       <c r="E56">
         <v>501</v>
@@ -2710,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2739,7 +2769,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>10</v>
       </c>
@@ -2768,7 +2798,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2827,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2826,7 +2856,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>10</v>
       </c>
@@ -2837,7 +2867,7 @@
         <v>206</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>7917</v>
       </c>
       <c r="E61">
         <v>0</v>
@@ -2852,7 +2882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>10</v>
       </c>
@@ -2863,7 +2893,7 @@
         <v>207</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>5769</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -2878,7 +2908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>10</v>
       </c>
@@ -2907,7 +2937,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -2918,7 +2948,7 @@
         <v>207</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>6619</v>
       </c>
       <c r="E64">
         <v>0</v>
@@ -2933,7 +2963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -2962,7 +2992,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -2991,7 +3021,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3002,7 +3032,7 @@
         <v>208</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>14938</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -3017,7 +3047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3028,7 +3058,7 @@
         <v>208</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>18452</v>
       </c>
       <c r="E68">
         <v>0</v>
@@ -3039,14 +3069,11 @@
       <c r="G68">
         <v>32</v>
       </c>
-      <c r="H68" t="s">
-        <v>249</v>
-      </c>
       <c r="I68">
         <v>300</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3068,11 +3095,14 @@
       <c r="G69">
         <v>0</v>
       </c>
+      <c r="H69" t="s">
+        <v>249</v>
+      </c>
       <c r="I69">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3131,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3112,7 +3142,7 @@
         <v>209</v>
       </c>
       <c r="D71">
-        <v>0</v>
+        <v>17582</v>
       </c>
       <c r="E71">
         <v>0</v>
@@ -3127,7 +3157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -3156,7 +3186,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>10</v>
       </c>
@@ -3178,11 +3208,14 @@
       <c r="G73">
         <v>0</v>
       </c>
+      <c r="H73" t="s">
+        <v>248</v>
+      </c>
       <c r="I73">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>10</v>
       </c>
@@ -3193,7 +3226,7 @@
         <v>210</v>
       </c>
       <c r="D74">
-        <v>0</v>
+        <v>21284</v>
       </c>
       <c r="E74">
         <v>0</v>
@@ -3211,7 +3244,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>10</v>
       </c>
@@ -3240,7 +3273,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>10</v>
       </c>
@@ -3251,7 +3284,7 @@
         <v>211</v>
       </c>
       <c r="D76">
-        <v>0</v>
+        <v>9183</v>
       </c>
       <c r="E76">
         <v>378</v>
@@ -3262,14 +3295,11 @@
       <c r="G76">
         <v>27</v>
       </c>
-      <c r="H76" t="s">
-        <v>248</v>
-      </c>
       <c r="I76">
         <v>200</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>10</v>
       </c>
@@ -3280,7 +3310,7 @@
         <v>211</v>
       </c>
       <c r="D77">
-        <v>0</v>
+        <v>6231</v>
       </c>
       <c r="E77">
         <v>657</v>
@@ -3298,7 +3328,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>10</v>
       </c>
@@ -3320,11 +3350,14 @@
       <c r="G78">
         <v>49</v>
       </c>
+      <c r="H78" t="s">
+        <v>248</v>
+      </c>
       <c r="I78">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>10</v>
       </c>
@@ -3346,11 +3379,14 @@
       <c r="G79">
         <v>69</v>
       </c>
+      <c r="H79" t="s">
+        <v>248</v>
+      </c>
       <c r="I79">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>10</v>
       </c>
@@ -3361,7 +3397,7 @@
         <v>212</v>
       </c>
       <c r="D80">
-        <v>0</v>
+        <v>12510</v>
       </c>
       <c r="E80">
         <v>0</v>
@@ -3376,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>10</v>
       </c>
@@ -3405,7 +3441,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>10</v>
       </c>
@@ -3434,7 +3470,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>10</v>
       </c>
@@ -3463,7 +3499,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>10</v>
       </c>
@@ -3474,7 +3510,7 @@
         <v>214</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>6406</v>
       </c>
       <c r="E84">
         <v>0</v>
@@ -3489,7 +3525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -3506,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>4.85</v>
+        <v>4.8499999999999996</v>
       </c>
       <c r="G85">
         <v>36</v>
@@ -3518,7 +3554,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>10</v>
       </c>
@@ -3529,7 +3565,7 @@
         <v>215</v>
       </c>
       <c r="D86">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E86">
         <v>0</v>
@@ -3544,7 +3580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>10</v>
       </c>
@@ -3555,7 +3591,7 @@
         <v>215</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -3570,7 +3606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>10</v>
       </c>
@@ -3599,7 +3635,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>10</v>
       </c>
@@ -3628,7 +3664,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>10</v>
       </c>
@@ -3657,7 +3693,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>10</v>
       </c>
@@ -3668,7 +3704,7 @@
         <v>217</v>
       </c>
       <c r="D91">
-        <v>0</v>
+        <v>20026</v>
       </c>
       <c r="E91">
         <v>0</v>
@@ -3683,7 +3719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>10</v>
       </c>
@@ -3712,7 +3748,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>10</v>
       </c>
@@ -3723,7 +3759,7 @@
         <v>217</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>7446</v>
       </c>
       <c r="E93">
         <v>459</v>
@@ -3741,7 +3777,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>10</v>
       </c>
@@ -3752,7 +3788,7 @@
         <v>217</v>
       </c>
       <c r="D94">
-        <v>0</v>
+        <v>1349</v>
       </c>
       <c r="E94">
         <v>296</v>
@@ -3770,7 +3806,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>10</v>
       </c>
@@ -3781,7 +3817,7 @@
         <v>217</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>16447</v>
       </c>
       <c r="E95">
         <v>0</v>
@@ -3796,7 +3832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>10</v>
       </c>
@@ -3825,7 +3861,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>10</v>
       </c>
@@ -3854,11 +3890,11 @@
         <v>300</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>10</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C98" t="s">
@@ -3883,7 +3919,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>10</v>
       </c>
@@ -3894,7 +3930,7 @@
         <v>218</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>6212</v>
       </c>
       <c r="E99">
         <v>0</v>
@@ -3909,7 +3945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>10</v>
       </c>
@@ -3920,7 +3956,7 @@
         <v>218</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>6005</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -3935,7 +3971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>10</v>
       </c>
@@ -3946,7 +3982,7 @@
         <v>218</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>9265</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -3961,7 +3997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>10</v>
       </c>
@@ -3990,7 +4026,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>10</v>
       </c>
@@ -4019,7 +4055,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>10</v>
       </c>
@@ -4030,7 +4066,7 @@
         <v>218</v>
       </c>
       <c r="D104">
-        <v>0</v>
+        <v>6212</v>
       </c>
       <c r="E104">
         <v>0</v>
@@ -4045,7 +4081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>10</v>
       </c>
@@ -4056,7 +4092,7 @@
         <v>218</v>
       </c>
       <c r="D105">
-        <v>0</v>
+        <v>6005</v>
       </c>
       <c r="E105">
         <v>0</v>
@@ -4071,7 +4107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>10</v>
       </c>
@@ -4082,7 +4118,7 @@
         <v>218</v>
       </c>
       <c r="D106">
-        <v>0</v>
+        <v>9265</v>
       </c>
       <c r="E106">
         <v>0</v>
@@ -4097,7 +4133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>10</v>
       </c>
@@ -4126,7 +4162,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>10</v>
       </c>
@@ -4155,7 +4191,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>10</v>
       </c>
@@ -4166,7 +4202,7 @@
         <v>219</v>
       </c>
       <c r="D109">
-        <v>0</v>
+        <v>12240</v>
       </c>
       <c r="E109">
         <v>2470</v>
@@ -4181,7 +4217,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>10</v>
       </c>
@@ -4192,7 +4228,7 @@
         <v>220</v>
       </c>
       <c r="D110">
-        <v>0</v>
+        <v>12853</v>
       </c>
       <c r="E110">
         <v>337</v>
@@ -4207,7 +4243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>10</v>
       </c>
@@ -4218,7 +4254,7 @@
         <v>220</v>
       </c>
       <c r="D111">
-        <v>0</v>
+        <v>12853</v>
       </c>
       <c r="E111">
         <v>0</v>
@@ -4233,7 +4269,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>10</v>
       </c>
@@ -4262,7 +4298,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>10</v>
       </c>
@@ -4279,7 +4315,7 @@
         <v>0</v>
       </c>
       <c r="F113">
-        <v>4.15</v>
+        <v>4.1500000000000004</v>
       </c>
       <c r="G113">
         <v>30</v>
@@ -4291,7 +4327,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>10</v>
       </c>
@@ -4320,7 +4356,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>10</v>
       </c>
@@ -4349,7 +4385,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>10</v>
       </c>
@@ -4360,7 +4396,7 @@
         <v>221</v>
       </c>
       <c r="D116">
-        <v>0</v>
+        <v>20049</v>
       </c>
       <c r="E116">
         <v>0</v>
@@ -4375,7 +4411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +4422,7 @@
         <v>222</v>
       </c>
       <c r="D117">
-        <v>0</v>
+        <v>11228</v>
       </c>
       <c r="E117">
         <v>2441</v>
@@ -4401,7 +4437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>10</v>
       </c>
@@ -4423,11 +4459,14 @@
       <c r="G118">
         <v>0</v>
       </c>
+      <c r="H118" t="s">
+        <v>248</v>
+      </c>
       <c r="I118">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>10</v>
       </c>
@@ -4456,7 +4495,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>10</v>
       </c>
@@ -4467,7 +4506,7 @@
         <v>225</v>
       </c>
       <c r="D120">
-        <v>0</v>
+        <v>6733</v>
       </c>
       <c r="E120">
         <v>0</v>
@@ -4482,7 +4521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>10</v>
       </c>
@@ -4493,7 +4532,7 @@
         <v>226</v>
       </c>
       <c r="D121">
-        <v>0</v>
+        <v>5101</v>
       </c>
       <c r="E121">
         <v>0</v>
@@ -4508,7 +4547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>10</v>
       </c>
@@ -4519,7 +4558,7 @@
         <v>226</v>
       </c>
       <c r="D122">
-        <v>0</v>
+        <v>5692</v>
       </c>
       <c r="E122">
         <v>0</v>
@@ -4534,7 +4573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>10</v>
       </c>
@@ -4545,7 +4584,7 @@
         <v>226</v>
       </c>
       <c r="D123">
-        <v>0</v>
+        <v>5040</v>
       </c>
       <c r="E123">
         <v>0</v>
@@ -4560,7 +4599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>10</v>
       </c>
@@ -4571,7 +4610,7 @@
         <v>226</v>
       </c>
       <c r="D124">
-        <v>0</v>
+        <v>5096</v>
       </c>
       <c r="E124">
         <v>0</v>
@@ -4586,7 +4625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>10</v>
       </c>
@@ -4597,7 +4636,7 @@
         <v>226</v>
       </c>
       <c r="D125">
-        <v>0</v>
+        <v>6490</v>
       </c>
       <c r="E125">
         <v>0</v>
@@ -4612,7 +4651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>10</v>
       </c>
@@ -4623,7 +4662,7 @@
         <v>226</v>
       </c>
       <c r="D126">
-        <v>0</v>
+        <v>7080</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -4638,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>10</v>
       </c>
@@ -4649,7 +4688,7 @@
         <v>226</v>
       </c>
       <c r="D127">
-        <v>0</v>
+        <v>5489</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -4664,7 +4703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>10</v>
       </c>
@@ -4675,7 +4714,7 @@
         <v>226</v>
       </c>
       <c r="D128">
-        <v>0</v>
+        <v>5489</v>
       </c>
       <c r="E128">
         <v>0</v>
@@ -4690,7 +4729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>10</v>
       </c>
@@ -4701,7 +4740,7 @@
         <v>227</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>9082</v>
       </c>
       <c r="E129">
         <v>0</v>
@@ -4719,7 +4758,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>10</v>
       </c>
@@ -4748,7 +4787,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>10</v>
       </c>
@@ -4759,7 +4798,7 @@
         <v>228</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>2108</v>
       </c>
       <c r="E131">
         <v>147</v>
@@ -4777,7 +4816,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>10</v>
       </c>
@@ -4788,7 +4827,7 @@
         <v>228</v>
       </c>
       <c r="D132">
-        <v>0</v>
+        <v>2878</v>
       </c>
       <c r="E132">
         <v>126</v>
@@ -4806,7 +4845,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>10</v>
       </c>
@@ -4817,7 +4856,7 @@
         <v>228</v>
       </c>
       <c r="D133">
-        <v>0</v>
+        <v>2878</v>
       </c>
       <c r="E133">
         <v>126</v>
@@ -4835,7 +4874,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>10</v>
       </c>
@@ -4846,7 +4885,7 @@
         <v>229</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>4184</v>
       </c>
       <c r="E134">
         <v>173</v>
@@ -4864,7 +4903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>10</v>
       </c>
@@ -4886,11 +4925,14 @@
       <c r="G135">
         <v>0</v>
       </c>
+      <c r="H135" t="s">
+        <v>248</v>
+      </c>
       <c r="I135">
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>10</v>
       </c>
@@ -4912,11 +4954,14 @@
       <c r="G136">
         <v>42</v>
       </c>
+      <c r="H136" t="s">
+        <v>248</v>
+      </c>
       <c r="I136">
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>10</v>
       </c>
@@ -4933,7 +4978,7 @@
         <v>0</v>
       </c>
       <c r="F137">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G137">
         <v>27</v>
@@ -4945,7 +4990,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>10</v>
       </c>
@@ -4974,7 +5019,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>10</v>
       </c>
@@ -4991,7 +5036,7 @@
         <v>0</v>
       </c>
       <c r="F139">
-        <v>2.28</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="G139">
         <v>27</v>
@@ -5003,7 +5048,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>10</v>
       </c>
@@ -5025,11 +5070,14 @@
       <c r="G140">
         <v>121</v>
       </c>
+      <c r="H140" t="s">
+        <v>248</v>
+      </c>
       <c r="I140">
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>10</v>
       </c>
@@ -5040,7 +5088,7 @@
         <v>233</v>
       </c>
       <c r="D141">
-        <v>0</v>
+        <v>6062</v>
       </c>
       <c r="E141">
         <v>0</v>
@@ -5058,7 +5106,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>10</v>
       </c>
@@ -5069,7 +5117,7 @@
         <v>233</v>
       </c>
       <c r="D142">
-        <v>0</v>
+        <v>10662</v>
       </c>
       <c r="E142">
         <v>0</v>
@@ -5084,7 +5132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>10</v>
       </c>
@@ -5095,7 +5143,7 @@
         <v>234</v>
       </c>
       <c r="D143">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="E143">
         <v>0</v>
@@ -5110,7 +5158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>10</v>
       </c>
@@ -5121,7 +5169,7 @@
         <v>234</v>
       </c>
       <c r="D144">
-        <v>0</v>
+        <v>4755</v>
       </c>
       <c r="E144">
         <v>0</v>
@@ -5136,7 +5184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>10</v>
       </c>
@@ -5147,7 +5195,7 @@
         <v>234</v>
       </c>
       <c r="D145">
-        <v>0</v>
+        <v>5563</v>
       </c>
       <c r="E145">
         <v>0</v>
@@ -5162,7 +5210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>10</v>
       </c>
@@ -5173,7 +5221,7 @@
         <v>235</v>
       </c>
       <c r="D146">
-        <v>0</v>
+        <v>20309</v>
       </c>
       <c r="E146">
         <v>647</v>
@@ -5188,7 +5236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>10</v>
       </c>
@@ -5217,7 +5265,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>10</v>
       </c>
@@ -5228,7 +5276,7 @@
         <v>236</v>
       </c>
       <c r="D148">
-        <v>0</v>
+        <v>11921</v>
       </c>
       <c r="E148">
         <v>0</v>
@@ -5243,7 +5291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>10</v>
       </c>
@@ -5265,15 +5313,18 @@
       <c r="G149">
         <v>0</v>
       </c>
+      <c r="H149" t="s">
+        <v>248</v>
+      </c>
       <c r="I149">
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>10</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C150" t="s">
@@ -5295,7 +5346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>10</v>
       </c>
@@ -5321,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>10</v>
       </c>
@@ -5347,7 +5398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>10</v>
       </c>
@@ -5373,7 +5424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>10</v>
       </c>
@@ -5399,7 +5450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>10</v>
       </c>
@@ -5425,7 +5476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>10</v>
       </c>
@@ -5451,7 +5502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>10</v>
       </c>
@@ -5477,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>10</v>
       </c>
@@ -5488,7 +5539,7 @@
         <v>237</v>
       </c>
       <c r="D158">
-        <v>0</v>
+        <v>6104</v>
       </c>
       <c r="E158">
         <v>0</v>
@@ -5503,7 +5554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -5514,7 +5565,7 @@
         <v>238</v>
       </c>
       <c r="D159">
-        <v>0</v>
+        <v>12067</v>
       </c>
       <c r="E159">
         <v>0</v>
@@ -5529,7 +5580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>10</v>
       </c>
@@ -5540,7 +5591,7 @@
         <v>238</v>
       </c>
       <c r="D160">
-        <v>0</v>
+        <v>12075</v>
       </c>
       <c r="E160">
         <v>0</v>
@@ -5555,7 +5606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>10</v>
       </c>
@@ -5577,11 +5628,14 @@
       <c r="G161">
         <v>0</v>
       </c>
+      <c r="H161" t="s">
+        <v>248</v>
+      </c>
       <c r="I161">
         <v>0</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>10</v>
       </c>
@@ -5603,11 +5657,14 @@
       <c r="G162">
         <v>84</v>
       </c>
+      <c r="H162" t="s">
+        <v>248</v>
+      </c>
       <c r="I162">
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>10</v>
       </c>
@@ -5618,7 +5675,7 @@
         <v>239</v>
       </c>
       <c r="D163">
-        <v>0</v>
+        <v>13659</v>
       </c>
       <c r="E163">
         <v>0</v>
@@ -5633,7 +5690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>10</v>
       </c>
@@ -5644,13 +5701,13 @@
         <v>240</v>
       </c>
       <c r="D164">
-        <v>0</v>
+        <v>6829</v>
       </c>
       <c r="E164">
         <v>476</v>
       </c>
       <c r="F164">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="G164">
         <v>75</v>
@@ -5662,7 +5719,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>10</v>
       </c>
@@ -5673,7 +5730,7 @@
         <v>240</v>
       </c>
       <c r="D165">
-        <v>0</v>
+        <v>15163</v>
       </c>
       <c r="E165">
         <v>2465</v>
@@ -5688,7 +5745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>10</v>
       </c>
@@ -5699,7 +5756,7 @@
         <v>241</v>
       </c>
       <c r="D166">
-        <v>0</v>
+        <v>11251</v>
       </c>
       <c r="E166">
         <v>0</v>
@@ -5714,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>10</v>
       </c>
@@ -5725,7 +5782,7 @@
         <v>241</v>
       </c>
       <c r="D167">
-        <v>0</v>
+        <v>6545</v>
       </c>
       <c r="E167">
         <v>0</v>
@@ -5740,7 +5797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>10</v>
       </c>
@@ -5751,7 +5808,7 @@
         <v>242</v>
       </c>
       <c r="D168">
-        <v>0</v>
+        <v>10577</v>
       </c>
       <c r="E168">
         <v>0</v>
@@ -5766,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>10</v>
       </c>
@@ -5777,7 +5834,7 @@
         <v>243</v>
       </c>
       <c r="D169">
-        <v>0</v>
+        <v>10419</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -5792,7 +5849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>10</v>
       </c>
@@ -5803,7 +5860,7 @@
         <v>244</v>
       </c>
       <c r="D170">
-        <v>0</v>
+        <v>10788</v>
       </c>
       <c r="E170">
         <v>0</v>
@@ -5818,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>10</v>
       </c>
@@ -5829,7 +5886,7 @@
         <v>245</v>
       </c>
       <c r="D171">
-        <v>0</v>
+        <v>6603</v>
       </c>
       <c r="E171">
         <v>600</v>
@@ -5844,7 +5901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>10</v>
       </c>
@@ -5873,7 +5930,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>10</v>
       </c>
@@ -5884,7 +5941,7 @@
         <v>245</v>
       </c>
       <c r="D173">
-        <v>0</v>
+        <v>5866</v>
       </c>
       <c r="E173">
         <v>278</v>
@@ -5902,7 +5959,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>10</v>
       </c>
@@ -5931,7 +5988,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>10</v>
       </c>
@@ -5953,11 +6010,14 @@
       <c r="G175">
         <v>103</v>
       </c>
+      <c r="H175" t="s">
+        <v>248</v>
+      </c>
       <c r="I175">
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>10</v>
       </c>
@@ -5968,7 +6028,7 @@
         <v>246</v>
       </c>
       <c r="D176">
-        <v>0</v>
+        <v>12411</v>
       </c>
       <c r="E176">
         <v>0</v>
@@ -5983,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>10</v>
       </c>
@@ -6013,19 +6073,29 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B28" r:id="rId1" xr:uid="{AA200565-DD07-4B01-A4ED-44D6EED9203A}"/>
+    <hyperlink ref="B98" r:id="rId2" xr:uid="{A3F13983-A525-4904-91BF-87FA5792A7B0}"/>
+    <hyperlink ref="B150" r:id="rId3" xr:uid="{5573216B-64CA-4381-A0E8-F1FA1E012E90}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H62"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="36" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -6051,7 +6121,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>220</v>
       </c>
@@ -6074,7 +6144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -6097,7 +6167,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>188</v>
       </c>
@@ -6123,7 +6193,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>189</v>
       </c>
@@ -6149,7 +6219,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>190</v>
       </c>
@@ -6175,7 +6245,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>191</v>
       </c>
@@ -6201,7 +6271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>192</v>
       </c>
@@ -6224,7 +6294,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>193</v>
       </c>
@@ -6250,7 +6320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>194</v>
       </c>
@@ -6273,7 +6343,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>195</v>
       </c>
@@ -6299,7 +6369,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>196</v>
       </c>
@@ -6322,7 +6392,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>197</v>
       </c>
@@ -6348,7 +6418,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>198</v>
       </c>
@@ -6374,7 +6444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>199</v>
       </c>
@@ -6400,7 +6470,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>200</v>
       </c>
@@ -6426,7 +6496,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>201</v>
       </c>
@@ -6452,7 +6522,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>202</v>
       </c>
@@ -6478,7 +6548,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>203</v>
       </c>
@@ -6501,7 +6571,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>204</v>
       </c>
@@ -6524,7 +6594,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>205</v>
       </c>
@@ -6550,7 +6620,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>206</v>
       </c>
@@ -6576,7 +6646,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>207</v>
       </c>
@@ -6602,7 +6672,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>208</v>
       </c>
@@ -6628,7 +6698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>209</v>
       </c>
@@ -6654,7 +6724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>210</v>
       </c>
@@ -6680,7 +6750,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>211</v>
       </c>
@@ -6706,7 +6776,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>212</v>
       </c>
@@ -6732,7 +6802,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>213</v>
       </c>
@@ -6758,7 +6828,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>214</v>
       </c>
@@ -6784,7 +6854,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>215</v>
       </c>
@@ -6810,7 +6880,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>216</v>
       </c>
@@ -6836,7 +6906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>217</v>
       </c>
@@ -6862,7 +6932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>218</v>
       </c>
@@ -6888,7 +6958,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>219</v>
       </c>
@@ -6911,7 +6981,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>221</v>
       </c>
@@ -6937,7 +7007,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>222</v>
       </c>
@@ -6960,7 +7030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>223</v>
       </c>
@@ -6983,7 +7053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>224</v>
       </c>
@@ -7009,7 +7079,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>225</v>
       </c>
@@ -7032,7 +7102,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>226</v>
       </c>
@@ -7055,7 +7125,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>227</v>
       </c>
@@ -7081,7 +7151,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>228</v>
       </c>
@@ -7092,7 +7162,7 @@
         <v>399</v>
       </c>
       <c r="D43">
-        <v>5.02</v>
+        <v>5.0199999999999996</v>
       </c>
       <c r="E43">
         <v>90</v>
@@ -7107,7 +7177,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>229</v>
       </c>
@@ -7133,7 +7203,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>230</v>
       </c>
@@ -7156,7 +7226,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>231</v>
       </c>
@@ -7179,7 +7249,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>232</v>
       </c>
@@ -7205,7 +7275,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>233</v>
       </c>
@@ -7231,7 +7301,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>234</v>
       </c>
@@ -7254,7 +7324,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>235</v>
       </c>
@@ -7280,7 +7350,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>236</v>
       </c>
@@ -7303,7 +7373,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>237</v>
       </c>
@@ -7326,7 +7396,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>238</v>
       </c>
@@ -7349,7 +7419,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>239</v>
       </c>
@@ -7372,7 +7442,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>240</v>
       </c>
@@ -7398,7 +7468,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>241</v>
       </c>
@@ -7421,7 +7491,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>242</v>
       </c>
@@ -7444,7 +7514,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>243</v>
       </c>
@@ -7467,7 +7537,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>244</v>
       </c>
@@ -7490,7 +7560,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:8">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>245</v>
       </c>
@@ -7516,7 +7586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:8">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>246</v>
       </c>
@@ -7539,7 +7609,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="62" spans="1:8">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>247</v>
       </c>
